--- a/biology/Botanique/Telfairia_batesii/Telfairia_batesii.xlsx
+++ b/biology/Botanique/Telfairia_batesii/Telfairia_batesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telfairia batesii Keraudren est une espèce de plantes à fleurs de la famille des Cucurbitaceae et du genre Telfairia , endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telfairia batesii Keraudren est une espèce de plantes à fleurs de la famille des Cucurbitaceae et du genre Telfairia , endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique batesii rend hommage au naturaliste américain George Latimer Bates qui la collecta à Bitye au début du XXe siècle (date incertaine[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique batesii rend hommage au naturaliste américain George Latimer Bates qui la collecta à Bitye au début du XXe siècle (date incertaine).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telfairia batesii est une liane grimpante ayant des tiges d’environ 50 cm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telfairia batesii est une liane grimpante ayant des tiges d’environ 50 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très rare, endémique, elle n'a d'abord été observée au Cameroun que sur un seul site, au bord du Dja, à Bitye, dans la région du Sud. Un autre spécimen aurait été récolté en 1970 à Njombe, sur la route Douala-Nkongsamba, mais l'existence d'un second site demande à être confirmée[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rare, endémique, elle n'a d'abord été observée au Cameroun que sur un seul site, au bord du Dja, à Bitye, dans la région du Sud. Un autre spécimen aurait été récolté en 1970 à Njombe, sur la route Douala-Nkongsamba, mais l'existence d'un second site demande à être confirmée.
 </t>
         </is>
       </c>
